--- a/Ecosystem carbon/01Total_SoilCData.xlsx
+++ b/Ecosystem carbon/01Total_SoilCData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vildehaukenes/Google Drive/Skole/Master biologi /Masteroppgave /01Data /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vildehaukenes/Google Drive/Skole/Master biologi /Masteroppgave /01Data /AfricanBioServices-Vegetation-and-soils/Ecosystem carbon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E97C0D-B679-5840-8E6B-FAF84FCA1CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9AD9C9-420C-944E-94F6-6C8D92288F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalData" sheetId="1" r:id="rId1"/>
@@ -1290,7 +1290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1723,7 +1723,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" xr:uid="{B7ED0522-1082-5C4C-AA14-59379DAAB1E6}"/>
@@ -2008,7 +2008,10 @@
   <dimension ref="A1:AN244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y134" sqref="Y134"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11390,7 +11393,7 @@
         <v>98.47</v>
       </c>
       <c r="W98" s="35">
-        <f t="shared" ref="W98:W161" si="7">+T98*(V98/100)/J98</f>
+        <f t="shared" ref="W98:W160" si="7">+T98*(V98/100)/J98</f>
         <v>1.4079544078679169</v>
       </c>
       <c r="X98" s="34">
@@ -18935,7 +18938,7 @@
         <v>98.06</v>
       </c>
       <c r="W178" s="35">
-        <f t="shared" ref="W162:W225" si="10">+T178*(V178/100)/J178</f>
+        <f t="shared" ref="W178:W211" si="10">+T178*(V178/100)/J178</f>
         <v>1.0809614945719221</v>
       </c>
       <c r="X178" s="34">
@@ -23493,7 +23496,7 @@
         <v>97.99</v>
       </c>
       <c r="W226" s="35">
-        <f t="shared" ref="W226:W241" si="13">+T226*(V226/100)/J226</f>
+        <f t="shared" ref="W226:W227" si="13">+T226*(V226/100)/J226</f>
         <v>1.1425147170464023</v>
       </c>
       <c r="X226" s="34">
